--- a/XXProject/策划/规划/数据规划.xlsx
+++ b/XXProject/策划/规划/数据规划.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -461,10 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -481,60 +482,54 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
